--- a/reporter/simulations/output/sim_finance_report_2025_6.xlsx
+++ b/reporter/simulations/output/sim_finance_report_2025_6.xlsx
@@ -530,7 +530,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SimFinUser1_833</t>
+          <t>SimFinUser1_37</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>SimFinUser2_833</t>
+          <t>SimFinUser2_37</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">

--- a/reporter/simulations/output/sim_finance_report_2025_6.xlsx
+++ b/reporter/simulations/output/sim_finance_report_2025_6.xlsx
@@ -530,7 +530,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SimFinUser1_37</t>
+          <t>SimFinUser1_740</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>SimFinUser2_37</t>
+          <t>SimFinUser2_740</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">

--- a/reporter/simulations/output/sim_finance_report_2025_6.xlsx
+++ b/reporter/simulations/output/sim_finance_report_2025_6.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SimFinUser1_740</t>
+          <t>SimFinUser1_245</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>SimFinUser2_740</t>
+          <t>SimFinUser2_245</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">

--- a/reporter/simulations/output/sim_finance_report_2025_6.xlsx
+++ b/reporter/simulations/output/sim_finance_report_2025_6.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SimFinUser1_245</t>
+          <t>SimFinUser1_773</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>SimFinUser2_245</t>
+          <t>SimFinUser2_773</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
